--- a/biology/Médecine/Pierre_Decker/Pierre_Decker.xlsx
+++ b/biology/Médecine/Pierre_Decker/Pierre_Decker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Decker, né le 11 février 1892 à Bex et mort le 31 mai 1967 à Lausanne, est un chirurgien, professeur à l'Université de Lausanne et collectionneur d'art suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Decker est le fils du Dr Charles Decker (1852-1926), originaire de Duillier, médecin généraliste à Bex, et d'Emma Pittet, de Lavey. Il a une sœur jumelle, Renée-Esther, et une sœur aînée, Blanche, née en 1883. Après des études au collège classique de Lausanne, puis au gymnase, il entre à la faculté de médecine et à la société d'étudiants Zofingue. Une fois ses études terminées, il devient le 1er mars 1918 le médecin de l'arrondissement de Lausanne pour la Caisse nationale suisse d'assurances.
 Pierre Decker devient ensuite médecin-assistant de chirurgie dans le service du professeur César Roux, puis assistant de médecine avant de retourner en chirurgie comme chef de clinique. Il fait un stage à l'institut du cancer de Paris où il se spécialise dans la curiethérapie du cancer du col de l'utérus. En 1926, il quitte le service de chirurgie pour ouvrir son cabinet. Il opère notamment à la Clinique Cecil. Il se fait connaître du monde médical suisse par ses études et ses publications. Nommé privat-docent en 1932, il devient professeur ordinaire de la clinique chirurgicale et médecin-chef du service de chirurgie. En parallèle, il se perfectionne dans la chirurgie de l'œsophage, du thorax et de l'abdomen en Amérique du Nord.
@@ -547,7 +561,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur décision municipale de 1973, Lausanne possède une avenue Dr Pierre Decker, entre l'avenue de la Sallaz et l'avenue de Beaumont.
 </t>
@@ -578,7 +594,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Olivier Robert et Francesco Panese, Dictionnaire des professeurs de l'Université de Lausanne dès 1890, Lausanne, Université de Lausanne, 2000, 1456 p., p. 296-297
 Louis Polla, Rues de Lausanne, Lausanne, Éditions 24 heures, 1981, 191 p. (ISBN 2826500503), p. 151-152
